--- a/data.xlsx
+++ b/data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhbwstg-my.sharepoint.com/personal/inf18086_lehre_dhbw-stuttgart_de/Documents/Studium/Semester 4/Database/MUIC-restaurant-guide/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philip Singer\OneDrive - Duale Hochschule Baden-Württemberg Stuttgart\Studium\Semester 4\Database\MUIC-restaurant-guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{9B37556D-FC76-444F-8ED1-4B56306311BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3C2F36E7-2C07-499B-972C-6FA32721014A}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{9B37556D-FC76-444F-8ED1-4B56306311BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C5FD94B2-28B0-459A-A4C5-7CDC07192E9F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{9AC91092-9A68-41ED-8AEF-8312BF951120}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>business_id</t>
   </si>
@@ -192,10 +193,28 @@
     <t>wrap, maxican, international, burger</t>
   </si>
   <si>
-    <t xml:space="preserve">thai, spaghetti, </t>
-  </si>
-  <si>
     <t>international, pizza, italien, shakes, sweet, spaghetti</t>
+  </si>
+  <si>
+    <t>business_ID</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>shake</t>
+  </si>
+  <si>
+    <t>bruger</t>
+  </si>
+  <si>
+    <t>international</t>
   </si>
 </sst>
 </file>
@@ -563,7 +582,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -799,9 +818,6 @@
       </c>
       <c r="I7">
         <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1245,22 +1261,70 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EB452B-F762-420D-B0B4-6E11FDB4258B}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DC82BB9D13200C4A8C40DFD5CFF2538E" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6b2a8341c6959f9f168a731bc5ed52d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9f5ecd72-c3c0-49f2-bf4f-999d7002fd95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7f309e919d4988f782f725d344996ea" ns3:_="">
     <xsd:import namespace="9f5ecd72-c3c0-49f2-bf4f-999d7002fd95"/>
@@ -1430,31 +1494,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A971EF-16B7-47E7-A4A8-6D3FD024CE7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9f5ecd72-c3c0-49f2-bf4f-999d7002fd95"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6E9E7B2-821D-4F79-900F-0F7C98329D5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FCBDDA1-4CB9-4D27-AC4B-BF4DBD96C544}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1470,4 +1525,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6E9E7B2-821D-4F79-900F-0F7C98329D5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A971EF-16B7-47E7-A4A8-6D3FD024CE7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9f5ecd72-c3c0-49f2-bf4f-999d7002fd95"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>